--- a/DataGenerator/XLSXS/StatCondition.xlsx
+++ b/DataGenerator/XLSXS/StatCondition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RaisingStudent2\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F774A6C-F832-427B-AF6F-776285761F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEA383C-E802-402F-AC5D-ACA74F8BA252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -747,7 +747,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -757,7 +757,7 @@
     <col min="10" max="10" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="17">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="C11" s="18">
         <v>0</v>
@@ -1297,7 +1297,7 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="23"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1325,7 +1325,7 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="23"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1353,7 +1353,7 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="23"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1381,7 +1381,7 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="23"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1409,7 +1409,7 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="23"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1437,7 +1437,7 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="23"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1465,7 +1465,7 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="23"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1493,7 +1493,7 @@
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="23"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1521,7 +1521,7 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="23"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1549,7 +1549,7 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="23"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1577,7 +1577,7 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="23"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1605,7 +1605,7 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="23"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1633,7 +1633,7 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="23"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1661,7 +1661,7 @@
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="23"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1689,7 +1689,7 @@
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="23"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1717,7 +1717,7 @@
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="23"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1745,7 +1745,7 @@
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="23"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1773,7 +1773,7 @@
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="23"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1801,7 +1801,7 @@
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="23"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1829,7 +1829,7 @@
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="23"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1857,7 +1857,7 @@
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="23"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1885,7 +1885,7 @@
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="23"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1913,7 +1913,7 @@
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="23"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1941,7 +1941,7 @@
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="23"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -1969,7 +1969,7 @@
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="23"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -1997,7 +1997,7 @@
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="23"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
